--- a/CASUAL/LA ONT/SILAN, MARIE BERNADETTE DIGO.xlsx
+++ b/CASUAL/LA ONT/SILAN, MARIE BERNADETTE DIGO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>UT(0-0-35)</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
   </si>
 </sst>
 </file>
@@ -934,7 +937,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,7 +980,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,7 +1044,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1104,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1170,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1233,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1331,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1455,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1498,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1573,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1759,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1825,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1883,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1949,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2005,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2080,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2123,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2245,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2685,12 +2688,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +2860,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.677</v>
+        <v>26.626999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3597,19 +3600,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>44742</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="39"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -3618,17 +3621,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>44773</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>44742</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39">
-        <v>7.3000000000000009E-2</v>
-      </c>
+      <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3642,16 +3641,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
       <c r="D47" s="39">
-        <v>5</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
@@ -3659,44 +3658,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H47" s="39">
-        <v>10</v>
-      </c>
+      <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>5</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39">
+        <v>10</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>44865</v>
-      </c>
-      <c r="B49" s="20"/>
+        <v>44834</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -3710,11 +3711,13 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3734,7 +3737,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -3753,17 +3756,19 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>63</v>
+      <c r="A52" s="40">
+        <v>44926</v>
       </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
@@ -3771,36 +3776,30 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>44957</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A53" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="39">
-        <v>1</v>
-      </c>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="49">
-        <v>44954</v>
-      </c>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>44957</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -3811,14 +3810,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>1</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="49">
+        <v>44954</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -3838,7 +3841,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3858,7 +3861,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -3878,7 +3881,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3898,7 +3901,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -3918,7 +3921,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -3938,7 +3941,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -3958,17 +3961,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45199</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39">
-        <v>5</v>
-      </c>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -3978,19 +3977,21 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B63" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>5</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4000,18 +4001,24 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45260</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -5043,20 +5050,36 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5168,11 +5191,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.3000000000000009E-2</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/SILAN, MARIE BERNADETTE DIGO.xlsx
+++ b/CASUAL/LA ONT/SILAN, MARIE BERNADETTE DIGO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -937,7 +940,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +983,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1047,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1107,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1173,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1236,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1334,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1393,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1458,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1501,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1576,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1762,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1828,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1886,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1952,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2008,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2083,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2126,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2192,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2248,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2696,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2863,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.626999999999995</v>
+        <v>26.376999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3759,11 +3762,15 @@
       <c r="A52" s="40">
         <v>44926</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -5189,13 +5196,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
-        <v>24</v>
-      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
